--- a/Code/Results/Cases/Case_3_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_108/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.211113928305735</v>
+        <v>1.311628556340793</v>
       </c>
       <c r="C2">
-        <v>0.3218364010243988</v>
+        <v>0.182196140785436</v>
       </c>
       <c r="D2">
-        <v>0.06073946559678944</v>
+        <v>0.1501265540252845</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8570030662599919</v>
+        <v>1.699915982715396</v>
       </c>
       <c r="G2">
-        <v>0.0008087630845016871</v>
+        <v>0.002482491547813603</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0780437960575775</v>
+        <v>0.2035584618202839</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1929440990961453</v>
+        <v>0.3290868311613266</v>
       </c>
       <c r="M2">
-        <v>0.3995828501949461</v>
+        <v>0.3294330702549146</v>
       </c>
       <c r="N2">
-        <v>0.8854343173416623</v>
+        <v>1.692190539315551</v>
       </c>
       <c r="O2">
-        <v>2.236117725115889</v>
+        <v>4.306380649986352</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.927824742680514</v>
+        <v>1.233359189711052</v>
       </c>
       <c r="C3">
-        <v>0.2932365814875482</v>
+        <v>0.172647344870839</v>
       </c>
       <c r="D3">
-        <v>0.05842530673867685</v>
+        <v>0.150081574071816</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8247638923379981</v>
+        <v>1.704008030465303</v>
       </c>
       <c r="G3">
-        <v>0.0008130582724068997</v>
+        <v>0.002485416671872163</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0804376600441099</v>
+        <v>0.2049127701997739</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1775957119228408</v>
+        <v>0.326436158904464</v>
       </c>
       <c r="M3">
-        <v>0.3513179704530955</v>
+        <v>0.31695269073753</v>
       </c>
       <c r="N3">
-        <v>0.9222849557083173</v>
+        <v>1.708474304463831</v>
       </c>
       <c r="O3">
-        <v>2.150554327506995</v>
+        <v>4.317639526875553</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.754588963826308</v>
+        <v>1.185678597658182</v>
       </c>
       <c r="C4">
-        <v>0.2756414665709883</v>
+        <v>0.166736482038587</v>
       </c>
       <c r="D4">
-        <v>0.05704780445423197</v>
+        <v>0.1500908570871111</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.806510332835586</v>
+        <v>1.707379432134964</v>
       </c>
       <c r="G4">
-        <v>0.0008157863868644847</v>
+        <v>0.002487310398538159</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08196937857477282</v>
+        <v>0.2057890190080882</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1683251782685105</v>
+        <v>0.3249205585359292</v>
       </c>
       <c r="M4">
-        <v>0.321863792807541</v>
+        <v>0.3094023283990879</v>
       </c>
       <c r="N4">
-        <v>0.9460606527345767</v>
+        <v>1.719058984731713</v>
       </c>
       <c r="O4">
-        <v>2.102405003494397</v>
+        <v>4.326877455815207</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.684143978687302</v>
+        <v>1.166344512356972</v>
       </c>
       <c r="C5">
-        <v>0.2684607254377624</v>
+        <v>0.1643158433782617</v>
       </c>
       <c r="D5">
-        <v>0.05649705006501904</v>
+        <v>0.1501039536213717</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7994409444368102</v>
+        <v>1.708969372386655</v>
       </c>
       <c r="G5">
-        <v>0.0008169213525011648</v>
+        <v>0.002488106745171897</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08260901088595562</v>
+        <v>0.206157354805826</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1645838116872511</v>
+        <v>0.3243311951768035</v>
       </c>
       <c r="M5">
-        <v>0.3099013990071313</v>
+        <v>0.3063540625521668</v>
       </c>
       <c r="N5">
-        <v>0.956031441560679</v>
+        <v>1.723519853193842</v>
       </c>
       <c r="O5">
-        <v>2.083831410697627</v>
+        <v>4.331226640185349</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.672454935415544</v>
+        <v>1.163139947769025</v>
       </c>
       <c r="C6">
-        <v>0.2672676773334501</v>
+        <v>0.1639131821803943</v>
       </c>
       <c r="D6">
-        <v>0.05640622812521201</v>
+        <v>0.1501066918299045</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7982888455452084</v>
+        <v>1.709246433540343</v>
       </c>
       <c r="G6">
-        <v>0.0008171112272410163</v>
+        <v>0.0024882404682115</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08271615088393047</v>
+        <v>0.2062191971165737</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1639647020144537</v>
+        <v>0.3242350417417086</v>
       </c>
       <c r="M6">
-        <v>0.3079173531709074</v>
+        <v>0.3058496329523166</v>
       </c>
       <c r="N6">
-        <v>0.9577039178829807</v>
+        <v>1.724269489433226</v>
       </c>
       <c r="O6">
-        <v>2.080808985171643</v>
+        <v>4.331984131525871</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.753638345664143</v>
+        <v>1.18541746040043</v>
       </c>
       <c r="C7">
-        <v>0.2755446698275108</v>
+        <v>0.1667038845381796</v>
       </c>
       <c r="D7">
-        <v>0.05704033432902733</v>
+        <v>0.150090995954649</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8064135219864426</v>
+        <v>1.70739999965172</v>
       </c>
       <c r="G7">
-        <v>0.0008158015988158066</v>
+        <v>0.002487321038317783</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08197794249312462</v>
+        <v>0.2057939409094702</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1682745760359552</v>
+        <v>0.3249124956184488</v>
       </c>
       <c r="M7">
-        <v>0.3217023065204216</v>
+        <v>0.3093611024255054</v>
       </c>
       <c r="N7">
-        <v>0.9461939894458986</v>
+        <v>1.719118548139818</v>
       </c>
       <c r="O7">
-        <v>2.102150342950694</v>
+        <v>4.326933743163323</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.11327253136659</v>
+        <v>1.284563770202908</v>
       </c>
       <c r="C8">
-        <v>0.3119812195080556</v>
+        <v>0.1789137202355988</v>
       </c>
       <c r="D8">
-        <v>0.0599323340895026</v>
+        <v>0.1501034066652309</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8455556342877912</v>
+        <v>1.701148717829589</v>
       </c>
       <c r="G8">
-        <v>0.0008102254503153184</v>
+        <v>0.002483479899425965</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07885628795101618</v>
+        <v>0.2040161609837687</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1876188055361894</v>
+        <v>0.328149715495087</v>
       </c>
       <c r="M8">
-        <v>0.382900510773851</v>
+        <v>0.3251065982939849</v>
       </c>
       <c r="N8">
-        <v>0.8978975774336604</v>
+        <v>1.697683523127761</v>
       </c>
       <c r="O8">
-        <v>2.205670662281136</v>
+        <v>4.309780179875418</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.825450709729921</v>
+        <v>1.48193431976631</v>
       </c>
       <c r="C9">
-        <v>0.3832516283657412</v>
+        <v>0.2024731049094441</v>
       </c>
       <c r="D9">
-        <v>0.06596380286113401</v>
+        <v>0.1504191080504143</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9354301620415555</v>
+        <v>1.695702025016232</v>
       </c>
       <c r="G9">
-        <v>0.0007999928124522867</v>
+        <v>0.002476719206930844</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07323091230297218</v>
+        <v>0.200883767061977</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.226874178256864</v>
+        <v>0.3353816144695116</v>
       </c>
       <c r="M9">
-        <v>0.5045893512970068</v>
+        <v>0.3568683109327324</v>
       </c>
       <c r="N9">
-        <v>0.8126377839862862</v>
+        <v>1.660298525510314</v>
       </c>
       <c r="O9">
-        <v>2.44613867463346</v>
+        <v>4.294592461885458</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.354959447671547</v>
+        <v>1.628689587167287</v>
       </c>
       <c r="C10">
-        <v>0.4356491366193893</v>
+        <v>0.2195438328707269</v>
       </c>
       <c r="D10">
-        <v>0.07063879963070008</v>
+        <v>0.1508268931251493</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.010770603695036</v>
+        <v>1.695851922873345</v>
       </c>
       <c r="G10">
-        <v>0.000792875359069665</v>
+        <v>0.002472217934525076</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06940777143867849</v>
+        <v>0.1987968973753091</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2566771064068547</v>
+        <v>0.3412286630835268</v>
       </c>
       <c r="M10">
-        <v>0.5953909463797231</v>
+        <v>0.3807337200312091</v>
       </c>
       <c r="N10">
-        <v>0.7562413543431745</v>
+        <v>1.635660445497358</v>
       </c>
       <c r="O10">
-        <v>2.649587017889331</v>
+        <v>4.294692523385578</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.597700764206138</v>
+        <v>1.695822470510393</v>
       </c>
       <c r="C11">
-        <v>0.4595294828270937</v>
+        <v>0.2272571938784154</v>
       </c>
       <c r="D11">
-        <v>0.07282426203794756</v>
+        <v>0.151050219179325</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.047379444047763</v>
+        <v>1.696821512283208</v>
       </c>
       <c r="G11">
-        <v>0.0007897179131139925</v>
+        <v>0.002470270339603123</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0677375070599755</v>
+        <v>0.1978938462103061</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.270481580098803</v>
+        <v>0.3440035452459824</v>
       </c>
       <c r="M11">
-        <v>0.6370919950547744</v>
+        <v>0.3917039986186595</v>
       </c>
       <c r="N11">
-        <v>0.7320559701591591</v>
+        <v>1.625065057481152</v>
       </c>
       <c r="O11">
-        <v>2.748895004977044</v>
+        <v>4.297185473541276</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.689932133125978</v>
+        <v>1.721296488143992</v>
       </c>
       <c r="C12">
-        <v>0.4685818957271408</v>
+        <v>0.2301704336480555</v>
       </c>
       <c r="D12">
-        <v>0.07366080141692066</v>
+        <v>0.1511401929947169</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.06160620356377</v>
+        <v>1.697318244379986</v>
       </c>
       <c r="G12">
-        <v>0.0007885332534202698</v>
+        <v>0.002469547148666232</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06711508748147832</v>
+        <v>0.1975585205737662</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2757477938522186</v>
+        <v>0.3450707616437256</v>
       </c>
       <c r="M12">
-        <v>0.652947794289048</v>
+        <v>0.3958743096501038</v>
       </c>
       <c r="N12">
-        <v>0.7231193856284364</v>
+        <v>1.621140895737149</v>
       </c>
       <c r="O12">
-        <v>2.787556494559141</v>
+        <v>4.298481546631592</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.670053939106765</v>
+        <v>1.715807901185769</v>
       </c>
       <c r="C13">
-        <v>0.4666318251149733</v>
+        <v>0.2295433574189474</v>
       </c>
       <c r="D13">
-        <v>0.07348023119231328</v>
+        <v>0.1511205756677896</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.05852557153024</v>
+        <v>1.6972055023965</v>
       </c>
       <c r="G13">
-        <v>0.0007887879112126426</v>
+        <v>0.002469702264873612</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06724868593056188</v>
+        <v>0.1976304438478014</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2746118424322646</v>
+        <v>0.3448401886128494</v>
       </c>
       <c r="M13">
-        <v>0.6495299654423334</v>
+        <v>0.3949754463900987</v>
       </c>
       <c r="N13">
-        <v>0.7250339940787853</v>
+        <v>1.621982116821428</v>
       </c>
       <c r="O13">
-        <v>2.779181696081508</v>
+        <v>4.298186754978275</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.605282217508488</v>
+        <v>1.697917194143201</v>
       </c>
       <c r="C14">
-        <v>0.4602740225669208</v>
+        <v>0.2274970218195449</v>
       </c>
       <c r="D14">
-        <v>0.07289290222777822</v>
+        <v>0.1510575132461796</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.048542430502366</v>
+        <v>1.696859782253185</v>
       </c>
       <c r="G14">
-        <v>0.0007896202333453142</v>
+        <v>0.002470210555626864</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06768609736295894</v>
+        <v>0.1978661257690362</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2709140384415178</v>
+        <v>0.3440910171678979</v>
       </c>
       <c r="M14">
-        <v>0.638395121819272</v>
+        <v>0.392046771329575</v>
       </c>
       <c r="N14">
-        <v>0.7313162417331966</v>
+        <v>1.624740449080683</v>
       </c>
       <c r="O14">
-        <v>2.752054048492681</v>
+        <v>4.297285046083744</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.565649415594237</v>
+        <v>1.686965382380322</v>
       </c>
       <c r="C15">
-        <v>0.4563810099964485</v>
+        <v>0.22624258283264</v>
       </c>
       <c r="D15">
-        <v>0.07253432757137546</v>
+        <v>0.1510195885948633</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.04247570537521</v>
+        <v>1.696664890971775</v>
       </c>
       <c r="G15">
-        <v>0.0007901314697728935</v>
+        <v>0.002470523761401394</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0679553413995988</v>
+        <v>0.1980113520864757</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2686541746956692</v>
+        <v>0.3436342641999062</v>
       </c>
       <c r="M15">
-        <v>0.6315833499816534</v>
+        <v>0.3902549629551544</v>
       </c>
       <c r="N15">
-        <v>0.7351935231826445</v>
+        <v>1.62644147788005</v>
       </c>
       <c r="O15">
-        <v>2.735577660357933</v>
+        <v>4.296778573496908</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.339136804657528</v>
+        <v>1.624309683983654</v>
       </c>
       <c r="C16">
-        <v>0.4340896491648323</v>
+        <v>0.2190386845387025</v>
       </c>
       <c r="D16">
-        <v>0.07049719922812869</v>
+        <v>0.1508130564396808</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.008427474127245</v>
+        <v>1.695806692072964</v>
       </c>
       <c r="G16">
-        <v>0.0007930832753607757</v>
+        <v>0.002472347222108541</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06951832754559728</v>
+        <v>0.1988568438702398</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2557801933020301</v>
+        <v>0.3410496230918056</v>
       </c>
       <c r="M16">
-        <v>0.5926742790873192</v>
+        <v>0.3800190541409094</v>
       </c>
       <c r="N16">
-        <v>0.7578523854772072</v>
+        <v>1.63636520518579</v>
       </c>
       <c r="O16">
-        <v>2.643240032929896</v>
+        <v>4.294578861155543</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.200685439768563</v>
+        <v>1.585967017416351</v>
       </c>
       <c r="C17">
-        <v>0.4204280954039348</v>
+        <v>0.2146058596867704</v>
       </c>
       <c r="D17">
-        <v>0.06926288644727663</v>
+        <v>0.1506960188600814</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9881575166283625</v>
+        <v>1.695511049023438</v>
       </c>
       <c r="G17">
-        <v>0.0007949143017625948</v>
+        <v>0.002473491435261808</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07049493105788485</v>
+        <v>0.1993873679888569</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.247947913214162</v>
+        <v>0.3394934114115955</v>
       </c>
       <c r="M17">
-        <v>0.5689112929282629</v>
+        <v>0.373768615205627</v>
       </c>
       <c r="N17">
-        <v>0.7721365629385062</v>
+        <v>1.642609983697092</v>
       </c>
       <c r="O17">
-        <v>2.588382631375737</v>
+        <v>4.293856332645248</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.121224711792877</v>
+        <v>1.563948539005082</v>
       </c>
       <c r="C18">
-        <v>0.4125743174080299</v>
+        <v>0.2120513110244531</v>
       </c>
       <c r="D18">
-        <v>0.06855844329023597</v>
+        <v>0.1506322639907225</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9767168750848327</v>
+        <v>1.695425850022389</v>
       </c>
       <c r="G18">
-        <v>0.0007959750549223736</v>
+        <v>0.00247415897827242</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07106312248930746</v>
+        <v>0.1996968680176394</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2434660311413808</v>
+        <v>0.3386091535287932</v>
       </c>
       <c r="M18">
-        <v>0.5552801298554684</v>
+        <v>0.370184253323103</v>
       </c>
       <c r="N18">
-        <v>0.7804900987375305</v>
+        <v>1.64625947603048</v>
       </c>
       <c r="O18">
-        <v>2.557460858117565</v>
+        <v>4.293671110657499</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.094349123112522</v>
+        <v>1.556499550792068</v>
       </c>
       <c r="C19">
-        <v>0.4099157591449227</v>
+        <v>0.2111855464583243</v>
       </c>
       <c r="D19">
-        <v>0.06832086110991753</v>
+        <v>0.1506112905037966</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9728799130652988</v>
+        <v>1.695411577215538</v>
       </c>
       <c r="G19">
-        <v>0.0007963355285544038</v>
+        <v>0.002474386616873553</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07125660952853874</v>
+        <v>0.1998024080937375</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2419524046799779</v>
+        <v>0.3383116231707817</v>
       </c>
       <c r="M19">
-        <v>0.5506709258717422</v>
+        <v>0.368972499905361</v>
       </c>
       <c r="N19">
-        <v>0.7833417945687273</v>
+        <v>1.647505035094738</v>
       </c>
       <c r="O19">
-        <v>2.547097152464033</v>
+        <v>4.293647958444211</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.215405640088136</v>
+        <v>1.590045025923985</v>
       </c>
       <c r="C20">
-        <v>0.4218819572944881</v>
+        <v>0.2150782501045967</v>
       </c>
       <c r="D20">
-        <v>0.06939370832714076</v>
+        <v>0.1507081092967297</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9902925200404411</v>
+        <v>1.695533739742885</v>
       </c>
       <c r="G20">
-        <v>0.0007947186036826829</v>
+        <v>0.002473368657275644</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07039029864868773</v>
+        <v>0.1993304420037592</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2487792656726953</v>
+        <v>0.3396579523481051</v>
       </c>
       <c r="M20">
-        <v>0.571437053242704</v>
+        <v>0.3744328769410288</v>
       </c>
       <c r="N20">
-        <v>0.7706016668998643</v>
+        <v>1.641939248753971</v>
       </c>
       <c r="O20">
-        <v>2.59415642671118</v>
+        <v>4.293909405123202</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.62429846184591</v>
+        <v>1.703170721613276</v>
       </c>
       <c r="C21">
-        <v>0.4621411813151042</v>
+        <v>0.2280982886942695</v>
       </c>
       <c r="D21">
-        <v>0.07306516785705242</v>
+        <v>0.1510758897836126</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.051464615870529</v>
+        <v>1.696957812560242</v>
       </c>
       <c r="G21">
-        <v>0.0007893754663781641</v>
+        <v>0.002470060870069108</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06755734427255322</v>
+        <v>0.1977967201744066</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2719990941455563</v>
+        <v>0.3443106220052385</v>
       </c>
       <c r="M21">
-        <v>0.6416638798149776</v>
+        <v>0.3929065591617089</v>
       </c>
       <c r="N21">
-        <v>0.7294648833012189</v>
+        <v>1.623927869571247</v>
       </c>
       <c r="O21">
-        <v>2.759992745285928</v>
+        <v>4.297540344519206</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.893365442834579</v>
+        <v>1.777408813112118</v>
       </c>
       <c r="C22">
-        <v>0.4885095742815508</v>
+        <v>0.2365630262436866</v>
       </c>
       <c r="D22">
-        <v>0.07551711821478335</v>
+        <v>0.1513477450000096</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.093578958854778</v>
+        <v>1.698643733972787</v>
       </c>
       <c r="G22">
-        <v>0.0007859472300010413</v>
+        <v>0.002467982483532429</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06576464314501562</v>
+        <v>0.1968330422100697</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2874021940271092</v>
+        <v>0.3474471178874836</v>
       </c>
       <c r="M22">
-        <v>0.6879412464096859</v>
+        <v>0.405073929300336</v>
       </c>
       <c r="N22">
-        <v>0.7038784330438617</v>
+        <v>1.612669798683427</v>
       </c>
       <c r="O22">
-        <v>2.874573329860198</v>
+        <v>4.301965423115291</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.749576864212656</v>
+        <v>1.737759204245208</v>
       </c>
       <c r="C23">
-        <v>0.4744300018995773</v>
+        <v>0.2320493633926048</v>
       </c>
       <c r="D23">
-        <v>0.07420349311151142</v>
+        <v>0.1511997805889749</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.070896661020498</v>
+        <v>1.697674841164513</v>
       </c>
       <c r="G23">
-        <v>0.0007877712978881027</v>
+        <v>0.002469084144618237</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06671600435974279</v>
+        <v>0.197343839077218</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2791593087338384</v>
+        <v>0.3457643908758001</v>
       </c>
       <c r="M23">
-        <v>0.6632046583975821</v>
+        <v>0.3985714815971662</v>
       </c>
       <c r="N23">
-        <v>0.7174118771345235</v>
+        <v>1.618631468168942</v>
       </c>
       <c r="O23">
-        <v>2.812823137396975</v>
+        <v>4.299415876626483</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.208750214561235</v>
+        <v>1.588201279575458</v>
       </c>
       <c r="C24">
-        <v>0.4212246652178067</v>
+        <v>0.2148647012580795</v>
       </c>
       <c r="D24">
-        <v>0.06933454765891867</v>
+        <v>0.1507026322089402</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.989326624171639</v>
+        <v>1.695523217209328</v>
       </c>
       <c r="G24">
-        <v>0.0007948070536479328</v>
+        <v>0.002473424135026603</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07043758201369954</v>
+        <v>0.1993561642402821</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2484033460581543</v>
+        <v>0.3395835308977695</v>
       </c>
       <c r="M24">
-        <v>0.5702950625987242</v>
+        <v>0.3741325358492631</v>
       </c>
       <c r="N24">
-        <v>0.7712951538475181</v>
+        <v>1.642242303345171</v>
       </c>
       <c r="O24">
-        <v>2.591544179918316</v>
+        <v>4.29388469409372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.631842738157161</v>
+        <v>1.428230072109386</v>
       </c>
       <c r="C25">
-        <v>0.3639761744391308</v>
+        <v>0.1961412208585784</v>
       </c>
       <c r="D25">
-        <v>0.06429117698424136</v>
+        <v>0.1503026948927655</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9095820397080701</v>
+        <v>1.696446350676894</v>
       </c>
       <c r="G25">
-        <v>0.0008026885968918969</v>
+        <v>0.002478466016245298</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07469887280449061</v>
+        <v>0.201693407890299</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2160975687496958</v>
+        <v>0.333331100457734</v>
       </c>
       <c r="M25">
-        <v>0.4714525469205455</v>
+        <v>0.3481821655501989</v>
       </c>
       <c r="N25">
-        <v>0.8346432420938434</v>
+        <v>1.669915032798571</v>
       </c>
       <c r="O25">
-        <v>2.37668407193209</v>
+        <v>4.296724806145562</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_108/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.311628556340793</v>
+        <v>2.211113928305679</v>
       </c>
       <c r="C2">
-        <v>0.182196140785436</v>
+        <v>0.3218364010244983</v>
       </c>
       <c r="D2">
-        <v>0.1501265540252845</v>
+        <v>0.06073946559684629</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.699915982715396</v>
+        <v>0.8570030662600203</v>
       </c>
       <c r="G2">
-        <v>0.002482491547813603</v>
+        <v>0.0008087630844756892</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2035584618202839</v>
+        <v>0.0780437960574345</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3290868311613266</v>
+        <v>0.1929440990960956</v>
       </c>
       <c r="M2">
-        <v>0.3294330702549146</v>
+        <v>0.3995828501949319</v>
       </c>
       <c r="N2">
-        <v>1.692190539315551</v>
+        <v>0.8854343173417369</v>
       </c>
       <c r="O2">
-        <v>4.306380649986352</v>
+        <v>2.236117725115946</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.233359189711052</v>
+        <v>1.927824742680542</v>
       </c>
       <c r="C3">
-        <v>0.172647344870839</v>
+        <v>0.2932365814879034</v>
       </c>
       <c r="D3">
-        <v>0.150081574071816</v>
+        <v>0.0584253067386804</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.704008030465303</v>
+        <v>0.8247638923379981</v>
       </c>
       <c r="G3">
-        <v>0.002485416671872163</v>
+        <v>0.0008130582723775734</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2049127701997739</v>
+        <v>0.08043766004406461</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.326436158904464</v>
+        <v>0.1775957119229545</v>
       </c>
       <c r="M3">
-        <v>0.31695269073753</v>
+        <v>0.3513179704530955</v>
       </c>
       <c r="N3">
-        <v>1.708474304463831</v>
+        <v>0.9222849557083244</v>
       </c>
       <c r="O3">
-        <v>4.317639526875553</v>
+        <v>2.150554327507024</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.185678597658182</v>
+        <v>1.754588963826308</v>
       </c>
       <c r="C4">
-        <v>0.166736482038587</v>
+        <v>0.2756414665710736</v>
       </c>
       <c r="D4">
-        <v>0.1500908570871111</v>
+        <v>0.05704780445422841</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.707379432134964</v>
+        <v>0.8065103328355718</v>
       </c>
       <c r="G4">
-        <v>0.002487310398538159</v>
+        <v>0.0008157863868891111</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2057890190080882</v>
+        <v>0.08196937857465869</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3249205585359292</v>
+        <v>0.1683251782683968</v>
       </c>
       <c r="M4">
-        <v>0.3094023283990879</v>
+        <v>0.3218637928075552</v>
       </c>
       <c r="N4">
-        <v>1.719058984731713</v>
+        <v>0.9460606527345803</v>
       </c>
       <c r="O4">
-        <v>4.326877455815207</v>
+        <v>2.10240500349434</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.166344512356972</v>
+        <v>1.684143978687331</v>
       </c>
       <c r="C5">
-        <v>0.1643158433782617</v>
+        <v>0.2684607254372935</v>
       </c>
       <c r="D5">
-        <v>0.1501039536213717</v>
+        <v>0.05649705006507233</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.708969372386655</v>
+        <v>0.799440944436796</v>
       </c>
       <c r="G5">
-        <v>0.002488106745171897</v>
+        <v>0.0008169213525610064</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.206157354805826</v>
+        <v>0.08260901088599226</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3243311951768035</v>
+        <v>0.1645838116873151</v>
       </c>
       <c r="M5">
-        <v>0.3063540625521668</v>
+        <v>0.3099013990071313</v>
       </c>
       <c r="N5">
-        <v>1.723519853193842</v>
+        <v>0.9560314415606825</v>
       </c>
       <c r="O5">
-        <v>4.331226640185349</v>
+        <v>2.083831410697655</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.163139947769025</v>
+        <v>1.672454935415544</v>
       </c>
       <c r="C6">
-        <v>0.1639131821803943</v>
+        <v>0.2672676773334501</v>
       </c>
       <c r="D6">
-        <v>0.1501066918299045</v>
+        <v>0.05640622812521556</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.709246433540343</v>
+        <v>0.7982888455452084</v>
       </c>
       <c r="G6">
-        <v>0.0024882404682115</v>
+        <v>0.0008171112272992165</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2062191971165737</v>
+        <v>0.08271615088394579</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3242350417417086</v>
+        <v>0.1639647020145247</v>
       </c>
       <c r="M6">
-        <v>0.3058496329523166</v>
+        <v>0.3079173531709074</v>
       </c>
       <c r="N6">
-        <v>1.724269489433226</v>
+        <v>0.9577039178829736</v>
       </c>
       <c r="O6">
-        <v>4.331984131525871</v>
+        <v>2.080808985171672</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.18541746040043</v>
+        <v>1.753638345664143</v>
       </c>
       <c r="C7">
-        <v>0.1667038845381796</v>
+        <v>0.2755446698276245</v>
       </c>
       <c r="D7">
-        <v>0.150090995954649</v>
+        <v>0.05704033432902733</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.70739999965172</v>
+        <v>0.8064135219864283</v>
       </c>
       <c r="G7">
-        <v>0.002487321038317783</v>
+        <v>0.0008158015988382048</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2057939409094702</v>
+        <v>0.08197794249323587</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3249124956184488</v>
+        <v>0.1682745760359552</v>
       </c>
       <c r="M7">
-        <v>0.3093611024255054</v>
+        <v>0.3217023065204359</v>
       </c>
       <c r="N7">
-        <v>1.719118548139818</v>
+        <v>0.9461939894459519</v>
       </c>
       <c r="O7">
-        <v>4.326933743163323</v>
+        <v>2.102150342950637</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.284563770202908</v>
+        <v>2.113272531366533</v>
       </c>
       <c r="C8">
-        <v>0.1789137202355988</v>
+        <v>0.3119812195078424</v>
       </c>
       <c r="D8">
-        <v>0.1501034066652309</v>
+        <v>0.0599323340894955</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.701148717829589</v>
+        <v>0.8455556342877841</v>
       </c>
       <c r="G8">
-        <v>0.002483479899425965</v>
+        <v>0.0008102254502902472</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2040161609837687</v>
+        <v>0.07885628795102262</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.328149715495087</v>
+        <v>0.1876188055362675</v>
       </c>
       <c r="M8">
-        <v>0.3251065982939849</v>
+        <v>0.3829005107738581</v>
       </c>
       <c r="N8">
-        <v>1.697683523127761</v>
+        <v>0.8978975774336533</v>
       </c>
       <c r="O8">
-        <v>4.309780179875418</v>
+        <v>2.205670662281079</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.48193431976631</v>
+        <v>2.825450709729864</v>
       </c>
       <c r="C9">
-        <v>0.2024731049094441</v>
+        <v>0.3832516283660254</v>
       </c>
       <c r="D9">
-        <v>0.1504191080504143</v>
+        <v>0.06596380286113401</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.695702025016232</v>
+        <v>0.9354301620415555</v>
       </c>
       <c r="G9">
-        <v>0.002476719206930844</v>
+        <v>0.0007999928124232669</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.200883767061977</v>
+        <v>0.07323091230306722</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3353816144695116</v>
+        <v>0.226874178256864</v>
       </c>
       <c r="M9">
-        <v>0.3568683109327324</v>
+        <v>0.5045893512970068</v>
       </c>
       <c r="N9">
-        <v>1.660298525510314</v>
+        <v>0.812637783986343</v>
       </c>
       <c r="O9">
-        <v>4.294592461885458</v>
+        <v>2.44613867463346</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.628689587167287</v>
+        <v>3.35495944767132</v>
       </c>
       <c r="C10">
-        <v>0.2195438328707269</v>
+        <v>0.4356491366192472</v>
       </c>
       <c r="D10">
-        <v>0.1508268931251493</v>
+        <v>0.07063879963067876</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.695851922873345</v>
+        <v>1.010770603695008</v>
       </c>
       <c r="G10">
-        <v>0.002472217934525076</v>
+        <v>0.0007928753590666754</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1987968973753091</v>
+        <v>0.0694077714386967</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3412286630835268</v>
+        <v>0.2566771064069258</v>
       </c>
       <c r="M10">
-        <v>0.3807337200312091</v>
+        <v>0.5953909463797515</v>
       </c>
       <c r="N10">
-        <v>1.635660445497358</v>
+        <v>0.756241354343139</v>
       </c>
       <c r="O10">
-        <v>4.294692523385578</v>
+        <v>2.64958701788936</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.695822470510393</v>
+        <v>3.597700764206252</v>
       </c>
       <c r="C11">
-        <v>0.2272571938784154</v>
+        <v>0.4595294828273495</v>
       </c>
       <c r="D11">
-        <v>0.151050219179325</v>
+        <v>0.07282426203794756</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.696821512283208</v>
+        <v>1.047379444047763</v>
       </c>
       <c r="G11">
-        <v>0.002470270339603123</v>
+        <v>0.0007897179131437746</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1978938462103061</v>
+        <v>0.06773750705989379</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3440035452459824</v>
+        <v>0.2704815800988172</v>
       </c>
       <c r="M11">
-        <v>0.3917039986186595</v>
+        <v>0.6370919950547602</v>
       </c>
       <c r="N11">
-        <v>1.625065057481152</v>
+        <v>0.7320559701591662</v>
       </c>
       <c r="O11">
-        <v>4.297185473541276</v>
+        <v>2.748895004977044</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.721296488143992</v>
+        <v>3.689932133125751</v>
       </c>
       <c r="C12">
-        <v>0.2301704336480555</v>
+        <v>0.4685818957271408</v>
       </c>
       <c r="D12">
-        <v>0.1511401929947169</v>
+        <v>0.07366080141734699</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.697318244379986</v>
+        <v>1.061606203563784</v>
       </c>
       <c r="G12">
-        <v>0.002469547148666232</v>
+        <v>0.0007885332533883361</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1975585205737662</v>
+        <v>0.06711508748144235</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3450707616437256</v>
+        <v>0.2757477938523465</v>
       </c>
       <c r="M12">
-        <v>0.3958743096501038</v>
+        <v>0.6529477942890267</v>
       </c>
       <c r="N12">
-        <v>1.621140895737149</v>
+        <v>0.7231193856284293</v>
       </c>
       <c r="O12">
-        <v>4.298481546631592</v>
+        <v>2.787556494559226</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.715807901185769</v>
+        <v>3.670053939106765</v>
       </c>
       <c r="C13">
-        <v>0.2295433574189474</v>
+        <v>0.466631825115428</v>
       </c>
       <c r="D13">
-        <v>0.1511205756677896</v>
+        <v>0.07348023119232039</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.6972055023965</v>
+        <v>1.058525571530254</v>
       </c>
       <c r="G13">
-        <v>0.002469702264873612</v>
+        <v>0.0007887879112409805</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1976304438478014</v>
+        <v>0.06724868593065159</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3448401886128494</v>
+        <v>0.2746118424322361</v>
       </c>
       <c r="M13">
-        <v>0.3949754463900987</v>
+        <v>0.6495299654423476</v>
       </c>
       <c r="N13">
-        <v>1.621982116821428</v>
+        <v>0.7250339940788351</v>
       </c>
       <c r="O13">
-        <v>4.298186754978275</v>
+        <v>2.779181696081537</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.697917194143201</v>
+        <v>3.605282217508602</v>
       </c>
       <c r="C14">
-        <v>0.2274970218195449</v>
+        <v>0.4602740225670345</v>
       </c>
       <c r="D14">
-        <v>0.1510575132461796</v>
+        <v>0.07289290222765032</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.696859782253185</v>
+        <v>1.048542430502351</v>
       </c>
       <c r="G14">
-        <v>0.002470210555626864</v>
+        <v>0.0007896202334057653</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1978661257690362</v>
+        <v>0.06768609736295161</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3440910171678979</v>
+        <v>0.2709140384415036</v>
       </c>
       <c r="M14">
-        <v>0.392046771329575</v>
+        <v>0.638395121819272</v>
       </c>
       <c r="N14">
-        <v>1.624740449080683</v>
+        <v>0.7313162417332464</v>
       </c>
       <c r="O14">
-        <v>4.297285046083744</v>
+        <v>2.752054048492653</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.686965382380322</v>
+        <v>3.565649415594009</v>
       </c>
       <c r="C15">
-        <v>0.22624258283264</v>
+        <v>0.4563810099962495</v>
       </c>
       <c r="D15">
-        <v>0.1510195885948633</v>
+        <v>0.07253432757137546</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.696664890971775</v>
+        <v>1.04247570537521</v>
       </c>
       <c r="G15">
-        <v>0.002470523761401394</v>
+        <v>0.0007901314697428132</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1980113520864757</v>
+        <v>0.0679553413996179</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3436342641999062</v>
+        <v>0.2686541746955982</v>
       </c>
       <c r="M15">
-        <v>0.3902549629551544</v>
+        <v>0.6315833499816605</v>
       </c>
       <c r="N15">
-        <v>1.62644147788005</v>
+        <v>0.7351935231826232</v>
       </c>
       <c r="O15">
-        <v>4.296778573496908</v>
+        <v>2.73557766035799</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.624309683983654</v>
+        <v>3.339136804657528</v>
       </c>
       <c r="C16">
-        <v>0.2190386845387025</v>
+        <v>0.4340896491647186</v>
       </c>
       <c r="D16">
-        <v>0.1508130564396808</v>
+        <v>0.07049719922832764</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.695806692072964</v>
+        <v>1.008427474127231</v>
       </c>
       <c r="G16">
-        <v>0.002472347222108541</v>
+        <v>0.0007930832753325817</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1988568438702398</v>
+        <v>0.06951832754554688</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3410496230918056</v>
+        <v>0.2557801933019732</v>
       </c>
       <c r="M16">
-        <v>0.3800190541409094</v>
+        <v>0.5926742790873334</v>
       </c>
       <c r="N16">
-        <v>1.63636520518579</v>
+        <v>0.7578523854772072</v>
       </c>
       <c r="O16">
-        <v>4.294578861155543</v>
+        <v>2.643240032929924</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.585967017416351</v>
+        <v>3.200685439768563</v>
       </c>
       <c r="C17">
-        <v>0.2146058596867704</v>
+        <v>0.4204280954037074</v>
       </c>
       <c r="D17">
-        <v>0.1506960188600814</v>
+        <v>0.06926288644709899</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.695511049023438</v>
+        <v>0.9881575166283625</v>
       </c>
       <c r="G17">
-        <v>0.002473491435261808</v>
+        <v>0.0007949143017626511</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1993873679888569</v>
+        <v>0.07049493105794524</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3394934114115955</v>
+        <v>0.2479479132142046</v>
       </c>
       <c r="M17">
-        <v>0.373768615205627</v>
+        <v>0.5689112929282487</v>
       </c>
       <c r="N17">
-        <v>1.642609983697092</v>
+        <v>0.7721365629385062</v>
       </c>
       <c r="O17">
-        <v>4.293856332645248</v>
+        <v>2.588382631375708</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.563948539005082</v>
+        <v>3.121224711792877</v>
       </c>
       <c r="C18">
-        <v>0.2120513110244531</v>
+        <v>0.4125743174083993</v>
       </c>
       <c r="D18">
-        <v>0.1506322639907225</v>
+        <v>0.06855844329036387</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.695425850022389</v>
+        <v>0.9767168750848469</v>
       </c>
       <c r="G18">
-        <v>0.00247415897827242</v>
+        <v>0.0007959750549821568</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1996968680176394</v>
+        <v>0.07106312248927793</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3386091535287932</v>
+        <v>0.2434660311414376</v>
       </c>
       <c r="M18">
-        <v>0.370184253323103</v>
+        <v>0.5552801298554684</v>
       </c>
       <c r="N18">
-        <v>1.64625947603048</v>
+        <v>0.7804900987374879</v>
       </c>
       <c r="O18">
-        <v>4.293671110657499</v>
+        <v>2.557460858117594</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.556499550792068</v>
+        <v>3.094349123112409</v>
       </c>
       <c r="C19">
-        <v>0.2111855464583243</v>
+        <v>0.4099157591449512</v>
       </c>
       <c r="D19">
-        <v>0.1506112905037966</v>
+        <v>0.06832086110981095</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.695411577215538</v>
+        <v>0.972879913065313</v>
       </c>
       <c r="G19">
-        <v>0.002474386616873553</v>
+        <v>0.0007963355284959252</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1998024080937375</v>
+        <v>0.07125660952854873</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3383116231707817</v>
+        <v>0.2419524046799353</v>
       </c>
       <c r="M19">
-        <v>0.368972499905361</v>
+        <v>0.5506709258717422</v>
       </c>
       <c r="N19">
-        <v>1.647505035094738</v>
+        <v>0.7833417945687415</v>
       </c>
       <c r="O19">
-        <v>4.293647958444211</v>
+        <v>2.547097152464005</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.590045025923985</v>
+        <v>3.215405640087965</v>
       </c>
       <c r="C20">
-        <v>0.2150782501045967</v>
+        <v>0.4218819572944597</v>
       </c>
       <c r="D20">
-        <v>0.1507081092967297</v>
+        <v>0.0693937083271905</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.695533739742885</v>
+        <v>0.9902925200404411</v>
       </c>
       <c r="G20">
-        <v>0.002473368657275644</v>
+        <v>0.0007947186036827855</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1993304420037592</v>
+        <v>0.07039029864854052</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3396579523481051</v>
+        <v>0.2487792656727379</v>
       </c>
       <c r="M20">
-        <v>0.3744328769410288</v>
+        <v>0.5714370532427182</v>
       </c>
       <c r="N20">
-        <v>1.641939248753971</v>
+        <v>0.7706016668998856</v>
       </c>
       <c r="O20">
-        <v>4.293909405123202</v>
+        <v>2.594156426711208</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.703170721613276</v>
+        <v>3.624298461845797</v>
       </c>
       <c r="C21">
-        <v>0.2280982886942695</v>
+        <v>0.4621411813151042</v>
       </c>
       <c r="D21">
-        <v>0.1510758897836126</v>
+        <v>0.07306516785718031</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.696957812560242</v>
+        <v>1.051464615870486</v>
       </c>
       <c r="G21">
-        <v>0.002470060870069108</v>
+        <v>0.0007893754662856812</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1977967201744066</v>
+        <v>0.0675573442726507</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3443106220052385</v>
+        <v>0.2719990941455421</v>
       </c>
       <c r="M21">
-        <v>0.3929065591617089</v>
+        <v>0.6416638798149776</v>
       </c>
       <c r="N21">
-        <v>1.623927869571247</v>
+        <v>0.7294648833012474</v>
       </c>
       <c r="O21">
-        <v>4.297540344519206</v>
+        <v>2.759992745285786</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.777408813112118</v>
+        <v>3.893365442834408</v>
       </c>
       <c r="C22">
-        <v>0.2365630262436866</v>
+        <v>0.4885095742814372</v>
       </c>
       <c r="D22">
-        <v>0.1513477450000096</v>
+        <v>0.07551711821496809</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.698643733972787</v>
+        <v>1.093578958854778</v>
       </c>
       <c r="G22">
-        <v>0.002467982483532429</v>
+        <v>0.0007859472300337789</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1968330422100697</v>
+        <v>0.06576464314497565</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3474471178874836</v>
+        <v>0.287402194027166</v>
       </c>
       <c r="M22">
-        <v>0.405073929300336</v>
+        <v>0.687941246409693</v>
       </c>
       <c r="N22">
-        <v>1.612669798683427</v>
+        <v>0.7038784330437977</v>
       </c>
       <c r="O22">
-        <v>4.301965423115291</v>
+        <v>2.874573329860141</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.737759204245208</v>
+        <v>3.749576864212656</v>
       </c>
       <c r="C23">
-        <v>0.2320493633926048</v>
+        <v>0.4744300018994636</v>
       </c>
       <c r="D23">
-        <v>0.1511997805889749</v>
+        <v>0.07420349311163221</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.697674841164513</v>
+        <v>1.070896661020512</v>
       </c>
       <c r="G23">
-        <v>0.002469084144618237</v>
+        <v>0.0007877712978522544</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.197343839077218</v>
+        <v>0.06671600435978609</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3457643908758001</v>
+        <v>0.2791593087338811</v>
       </c>
       <c r="M23">
-        <v>0.3985714815971662</v>
+        <v>0.6632046583975892</v>
       </c>
       <c r="N23">
-        <v>1.618631468168942</v>
+        <v>0.7174118771345377</v>
       </c>
       <c r="O23">
-        <v>4.299415876626483</v>
+        <v>2.812823137397004</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.588201279575458</v>
+        <v>3.208750214561519</v>
       </c>
       <c r="C24">
-        <v>0.2148647012580795</v>
+        <v>0.4212246652181761</v>
       </c>
       <c r="D24">
-        <v>0.1507026322089402</v>
+        <v>0.06933454765898972</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.695523217209328</v>
+        <v>0.9893266241716105</v>
       </c>
       <c r="G24">
-        <v>0.002473424135026603</v>
+        <v>0.0007948070536164001</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1993561642402821</v>
+        <v>0.07043758201376393</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3395835308977695</v>
+        <v>0.2484033460581827</v>
       </c>
       <c r="M24">
-        <v>0.3741325358492631</v>
+        <v>0.5702950625987171</v>
       </c>
       <c r="N24">
-        <v>1.642242303345171</v>
+        <v>0.771295153847511</v>
       </c>
       <c r="O24">
-        <v>4.29388469409372</v>
+        <v>2.591544179918316</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.428230072109386</v>
+        <v>2.631842738157388</v>
       </c>
       <c r="C25">
-        <v>0.1961412208585784</v>
+        <v>0.3639761744391308</v>
       </c>
       <c r="D25">
-        <v>0.1503026948927655</v>
+        <v>0.06429117698417741</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.696446350676894</v>
+        <v>0.9095820397080558</v>
       </c>
       <c r="G25">
-        <v>0.002478466016245298</v>
+        <v>0.0008026885969212068</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.201693407890299</v>
+        <v>0.07469887280453902</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.333331100457734</v>
+        <v>0.2160975687496247</v>
       </c>
       <c r="M25">
-        <v>0.3481821655501989</v>
+        <v>0.4714525469205526</v>
       </c>
       <c r="N25">
-        <v>1.669915032798571</v>
+        <v>0.8346432420938328</v>
       </c>
       <c r="O25">
-        <v>4.296724806145562</v>
+        <v>2.376684071932004</v>
       </c>
     </row>
   </sheetData>
